--- a/dataset/day_7.xlsx
+++ b/dataset/day_7.xlsx
@@ -2483,7 +2483,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on); G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3; #3</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -7347,7 +7347,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>G((TeaRoom.WaterDispenser.on) -&gt; (F[0, 2*60] !(TeaRoom.WaterDispenser.on)))</t>
+          <t>#9</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
@@ -10411,7 +10411,7 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>G!(Lab.temperature_up&amp;Lab.temperature_down)</t>
+          <t>#1</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -12023,7 +12023,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>G(Lab.brightness_up&amp;(Lab.HumanState.detected))</t>
+          <t>#2</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -12835,7 +12835,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;Lab.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>G!(Context.Weather.raining&amp;TeaRoom.Window.on)</t>
+          <t>#3</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
